--- a/JPADSandBox_v2/out/AIRBUS A-320neo/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/AIRBUS A-320neo/WEIGHTS/Weights.xlsx
@@ -347,7 +347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>80345.37781989572</v>
+        <v>79419.70291271698</v>
       </c>
     </row>
     <row r="6">
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>78845.37781989572</v>
+        <v>77919.70291271698</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>72310.84003790613</v>
+        <v>67506.74747580943</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>19045.829204594513</v>
+        <v>16191.920719640257</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>61299.54861530122</v>
+        <v>63227.78219307674</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>59799.54861530122</v>
+        <v>61727.78219307674</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>18000.0</v>
+        <v>19500.0</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>16500.0</v>
+        <v>18000.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>43299.54861530122</v>
+        <v>43727.78219307675</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>42209.20887551726</v>
+        <v>42642.07325047115</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>401.7088032839547</v>
+        <v>397.078006105594</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2694.5999999999995</v>
+        <v>2919.1499999999996</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>39916.317678801235</v>
+        <v>40120.001256576754</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>23100.646028388386</v>
+        <v>23221.60255773338</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8034.176065679094</v>
+        <v>7941.5601221118795</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>9056.333333333332</v>
+        <v>9055.5</v>
       </c>
       <c r="D3" t="n">
-        <v>12.722614731095513</v>
+        <v>14.026713400891452</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>9056.333333333332</v>
+        <v>9055.499999999998</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>17004.0</v>
+        <v>16818.0</v>
       </c>
       <c r="D8" t="n">
-        <v>111.64584720315968</v>
+        <v>111.77199116296094</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         <v>7417.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.681883750538976</v>
+        <v>-6.6052527972599995</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         <v>8709.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.399416801477155</v>
+        <v>9.663590857309245</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         <v>24526.0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.2708802931483</v>
+        <v>208.83100578325488</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +670,7 @@
         <v>11451.0</v>
       </c>
       <c r="D12" t="n">
-        <v>42.52861657982719</v>
+        <v>44.190811678384215</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>12196.0</v>
+        <v>12152.0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.80150273404701</v>
+        <v>53.01779263957078</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7183.0</v>
+        <v>7141.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.594441280857687</v>
+        <v>-10.080640451022468</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7382.0</v>
+        <v>7463.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.117522697381517</v>
+        <v>-6.026021521632921</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8516.22662961984</v>
+        <v>8418.05372943859</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7671.25</v>
+        <v>7831.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.921960351324742</v>
+        <v>-6.967806909896137</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7671.249999999999</v>
+        <v>7831.499999999999</v>
       </c>
     </row>
     <row r="6">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7210.0</v>
+        <v>7368.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.338091462675752</v>
+        <v>-12.473830212872967</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6485.0</v>
+        <v>6522.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-23.8512514750974</v>
+        <v>-22.523659154228756</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>9113.0</v>
+        <v>9507.0</v>
       </c>
       <c r="D10" t="n">
-        <v>7.007485783722036</v>
+        <v>12.93584367076774</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7877.0</v>
+        <v>7929.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.505984251247836</v>
+        <v>-5.8095819432505085</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>923.9302475530958</v>
+        <v>913.2794140428662</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>867.125</v>
+        <v>866.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.1482181910958005</v>
+        <v>-5.17688380093576</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>867.1249999999999</v>
+        <v>865.9999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>1822.0</v>
       </c>
       <c r="D8" t="n">
-        <v>97.20103382536944</v>
+        <v>99.50082876985572</v>
       </c>
     </row>
     <row r="9">
@@ -972,7 +972,7 @@
         <v>1940.0</v>
       </c>
       <c r="D9" t="n">
-        <v>109.97256071416943</v>
+        <v>112.42129956834253</v>
       </c>
     </row>
     <row r="10">
@@ -986,7 +986,7 @@
         <v>1188.0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.581135117749117</v>
+        <v>30.080672106799444</v>
       </c>
     </row>
     <row r="11">
@@ -1000,7 +1000,7 @@
         <v>-808.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-187.45248920466437</v>
+        <v>-188.47237631506226</v>
       </c>
     </row>
     <row r="12">
@@ -1014,7 +1014,7 @@
         <v>801.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-13.305143746366127</v>
+        <v>-12.294092291627647</v>
       </c>
     </row>
     <row r="13">
@@ -1025,10 +1025,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>517.0</v>
+        <v>513.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-44.04339490246104</v>
+        <v>-43.82880068115479</v>
       </c>
     </row>
     <row r="14">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>631.0</v>
+        <v>626.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-31.704801128535614</v>
+        <v>-31.45580745887504</v>
       </c>
     </row>
     <row r="15">
@@ -1056,7 +1056,7 @@
         <v>846.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.434646204027144</v>
+        <v>-7.366794105764034</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>923.9302475530958</v>
+        <v>913.2794140428662</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>692.7142857142856</v>
+        <v>692.2857142857142</v>
       </c>
       <c r="D3" t="n">
-        <v>-25.0252616418993</v>
+        <v>-24.19781902001561</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>692.7142857142856</v>
+        <v>692.2857142857142</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1158,7 @@
         <v>1238.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.99279905368132</v>
+        <v>35.555447868870125</v>
       </c>
     </row>
     <row r="9">
@@ -1172,7 +1172,7 @@
         <v>1940.0</v>
       </c>
       <c r="D9" t="n">
-        <v>109.97256071416943</v>
+        <v>112.42129956834253</v>
       </c>
     </row>
     <row r="10">
@@ -1186,7 +1186,7 @@
         <v>641.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.622468341349173</v>
+        <v>-29.813374730253834</v>
       </c>
     </row>
     <row r="11">
@@ -1200,7 +1200,7 @@
         <v>498.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-46.09982719811527</v>
+        <v>-45.47123340977599</v>
       </c>
     </row>
     <row r="12">
@@ -1214,7 +1214,7 @@
         <v>-109.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-111.79742738033221</v>
+        <v>-111.93501116131408</v>
       </c>
     </row>
     <row r="13">
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-80.8427096668</v>
+        <v>-80.72878931751119</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>464.0</v>
+        <v>462.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-49.77975867454917</v>
+        <v>-49.41307195846689</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.4934524790278</v>
+        <v>1508.896423201257</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>1616.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.863539563541094</v>
+        <v>7.098139749812221</v>
       </c>
     </row>
     <row r="4">
@@ -1354,7 +1354,7 @@
         <v>798.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5533472422101395</v>
+        <v>5.772667723205633</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>807.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.732520331407998</v>
+        <v>6.965592547151562</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>819.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.304751117005143</v>
+        <v>8.556158979079466</v>
       </c>
     </row>
     <row r="13">
@@ -1426,7 +1426,7 @@
         <v>798.0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5533472422101395</v>
+        <v>5.772667723205633</v>
       </c>
     </row>
     <row r="18">
@@ -1440,7 +1440,7 @@
         <v>807.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.732520331407998</v>
+        <v>6.965592547151562</v>
       </c>
     </row>
     <row r="19">
@@ -1454,7 +1454,7 @@
         <v>819.0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.304751117005143</v>
+        <v>8.556158979079466</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6668.366134513648</v>
+        <v>6591.49490135286</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1535,7 @@
         <v>8033.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>20.469289947277876</v>
+        <v>21.874225097019256</v>
       </c>
     </row>
     <row r="4">
@@ -1600,7 +1600,7 @@
         <v>4286.0</v>
       </c>
       <c r="D11" t="n">
-        <v>28.547230717186647</v>
+        <v>30.046372306844297</v>
       </c>
     </row>
     <row r="12">
@@ -1614,7 +1614,7 @@
         <v>3886.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.550288979698394</v>
+        <v>17.909520015024952</v>
       </c>
     </row>
     <row r="13">
@@ -1628,7 +1628,7 @@
         <v>3878.0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.31035014494863</v>
+        <v>17.666782969188564</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>4286.0</v>
       </c>
       <c r="D18" t="n">
-        <v>28.547230717186647</v>
+        <v>30.046372306844297</v>
       </c>
     </row>
     <row r="19">
@@ -1686,7 +1686,7 @@
         <v>3886.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.550288979698394</v>
+        <v>17.909520015024952</v>
       </c>
     </row>
     <row r="20">
@@ -1700,7 +1700,7 @@
         <v>3878.0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.31035014494863</v>
+        <v>17.666782969188564</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3294.0121869284285</v>
+        <v>3256.039650065871</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3197.223409340777</v>
+        <v>3160.31684344768</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.9383248177325134</v>
+        <v>-2.939853837967055</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3197.223409340777</v>
+        <v>3160.3168434476797</v>
       </c>
     </row>
     <row r="6">
@@ -1820,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3197.2234093407774</v>
+        <v>3160.31684344768</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.938324817732501</v>
+        <v>-2.9398538379670556</v>
       </c>
     </row>
     <row r="10">
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>475.835256687007</v>
+        <v>471.20536364093084</v>
       </c>
     </row>
     <row r="12">
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2721.3881526537707</v>
+        <v>2689.1114798067492</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>10926.479449323568</v>
+        <v>10800.521766072157</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8782.338317079539</v>
+        <v>8865.065365510069</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.62334841875136</v>
+        <v>-17.92002685131349</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8782.338317079539</v>
+        <v>8865.065365510069</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8782.33831707954</v>
+        <v>8865.065365510069</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.623348418751345</v>
+        <v>-17.92002685131349</v>
       </c>
     </row>
     <row r="9">
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>371.7412449014323</v>
+        <v>391.6642079117032</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>371.74124490143225</v>
+        <v>391.66420791170316</v>
       </c>
     </row>
     <row r="14">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1120.6386020241039</v>
+        <v>1123.8004717186523</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1120.6386020241036</v>
+        <v>1123.800471718652</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>598.7291104536368</v>
+        <v>601.7732710517423</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>598.7291104536367</v>
+        <v>601.7732710517422</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>915.4780097837568</v>
+        <v>908.4284726885076</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>915.4780097837566</v>
+        <v>908.4284726885074</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3673.0112118218913</v>
+        <v>3736.658804044744</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3673.011211821891</v>
+        <v>3736.6588040447436</v>
       </c>
     </row>
   </sheetData>
